--- a/DOM_Banner/output/dept_banner/Aparna Nallagangula_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aparna Nallagangula_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,528 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Aliya Khan, Samuel A. Kareff, Priscila Barreto-Coelho, Sunil Iyer, Brian A. Pico, Michele Stanchina, Giselle Dutcher, José Monteiro de Oliveira Novaes, Aparna Nallagangula, Gilberto Lopes</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313816660</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Abstract B123: Prevalence of COVID-19 among hematology/oncology patients and providers of a community-facing county health system during the B1.1.529 (“Omicron”) SARS-CoV-2 variant wave</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5063080270", "https://openalex.org/A5011092600", "https://openalex.org/A5083669154", "https://openalex.org/A5080509439", "https://openalex.org/A5022258460", "https://openalex.org/A5050531831", "https://openalex.org/A5043039489", "https://openalex.org/A5086057670", "https://openalex.org/A5057591852", "https://openalex.org/A5015188727"), au_display_name = c("Aliya Khan", "Samuel A. Kareff", "Priscila Barreto-Coelho", "Sunil Iyer", "Brian A. Pico", "Michele Stanchina", 
-"Giselle Dutcher", "José Monteiro de Oliveira Novaes", "Aparna Nallagangula", "Gilberto Lopes"), au_orcid = c("https://orcid.org/0000-0003-3733-8956", "https://orcid.org/0000-0001-7431-1221", "https://orcid.org/0000-0002-9236-6071", "https://orcid.org/0000-0002-2507-9347", NA, "https://orcid.org/0000-0002-4691-7645", NA, NA, NA, "https://orcid.org/0000-0002-2383-9533"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("1University of Miami, Miami, FL,", 
-"2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", "2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", "2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", "2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", "2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", "2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", 
-"2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", "2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,", "3University of Miami Miller School of Medicine, Miami, FL."), institution_id = c("https://openalex.org/I145608581", "https://openalex.org/I4210157065", "https://openalex.org/I4210157065", "https://openalex.org/I4210157065", "https://openalex.org/I4210157065", "https://openalex.org/I4210157065", "https://openalex.org/I4210157065", 
-"https://openalex.org/I4210157065", "https://openalex.org/I4210157065", "https://openalex.org/I145608581"), institution_display_name = c("University of Miami", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "University of Miami"
-), institution_ror = c("https://ror.org/02dgjyy92", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/02dgjyy92"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", 
-"healthcare", "healthcare", "healthcare", "education"), institution_lineage = c("https://openalex.org/I145608581", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", 
-"https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I145608581"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abstract Introduction: The SARS-CoV-2 (COVID-19) pandemic continues in the United States, and patients actively receiving chemotherapy are known to be at enhanced risk for developing symptomatic disease. Our study evaluated the prevalence of COVID-19 among patients and providers of our community-facing county health system during the B1.1.529 (“Omicron”) COVID-19 variant wave. Methods: We retrospectively analyzed patients that received care and clinical providers whom worked at the Jackson Memorial Hospital Hematology/Oncology clinic in Miami, Florida from December 1st, 2021 through April 30th, 2022. After categorizing basic demographic factors for individuals whom tested positive for COVID-19 during the study timeframe, we analyzed additional risk factors leading to COVID-19 positivity including, but not limited to, vaccination status, previous COVID-19 positivity, and active receipt of chemotherapeutics. We then analyzed outcomes related to COVID-19, including treatment with advanced COVID-19 therapies such as oral or intravenous antivirals, monoclonal antibodies, convalescent plasma, steroids, or interleukin-6 inhibitors; interactions with inpatient services including emergency department (ED)/urgent care visits, inpatient and/or ICU admissions, and deaths from COVID-19. We finally assessed quality outcomes such as delay in cancer-directed therapy. This study was approved by the University of Miami IRB and Jackson Health System Clinical Trials Office. Results: 498 patients and 18 providers were retrospectively analyzed during the study timeframe. 49 patients tested positive for COVID-19 (9.84%), while 6 providers tested positive (33.3%) (p = 0.015). Patients whom tested positive were 51.0% female (n = 25), 26.5% Black (n = 13), 73.5% Hispanic/Latinx (n = 36), and 2.05% Asian (n = 1). Only 6.12% patients had tested positive for COVID-19 previously (n = 3), and 42.9% were considered unvaccinated (n = 21) while 14.3% were boosted (n = 7). 73.5% (n = 36) presented with symptomatic disease, 46.9% (n = 23) sought care at an ED/urgent care, 32.6% (n = 13) were admitted to the hospital, 6.12% were admitted to the ICU (n = 3), and 16.3% (n = 8) received advanced therapeutics. There were 2 (8.0%) COVID-19-related deaths (and another outside our study timeframe) among 23 non-COVID-19 related deaths in the patient population (p = 0.75). More than half of the patients whom tested positive experienced a cancer treatment delay (n = 27/49; 55.1%). Conclusions: The prevalence of COVID-19 positivity in our patient cohort during the initial Omicron wave mirrored local, state, and national trends, however a statistically significant greater proportion of our providers tested positive. COVID-19 positivity conferred appreciable disparities in the presentation of disease as well as receipt of cancer treatment. COVID-19 positivity was more likely to result in symptomatic disease and ED/urgent care visit in cancer patients without previous COVID infection and unvaccinated status. COVID-19 accounted for 8.0% of our clinic’s total mortality. Citation Format: Aliya Khan, Samuel A. Kareff, Priscila Barreto-Coelho, Sunil Iyer, Brian Pico, Michele Stanchina, Giselle Dutcher, José Monteiro de Oliveira Novaes, Aparna Nallagangula, Gilberto Lopes. Prevalence of COVID-19 among hematology/oncology patients and providers of a community-facing county health system during the B1.1.529 (“Omicron”) SARS-CoV-2 variant wave [abstract]. In: Proceedings of the 15th AACR Conference on the Science of Cancer Health Disparities in Racial/Ethnic Minorities and the Medically Underserved; 2022 Sep 16-19; Philadelphia, PA. Philadelphia (PA): AACR; Cancer Epidemiol Biomarkers Prev 2022;31(1 Suppl):Abstract nr B123.</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Cancer Epidemiology, Biomarkers &amp; Prevention</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cancer Epidemiology, Biomarkers &amp; Prevention</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S8391440</t>
+          <t>https://doi.org/10.1158/1538-7755.disp22-b123</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1055-9965</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1538-7755.disp22-b123</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>B123</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>B123</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1_Supplement</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4313816660</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4313816660", doi = "https://doi.org/10.1158/1538-7755.disp22-b123")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1538-7755.disp22-b123</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2141668586", "https://openalex.org/W2946391707", "https://openalex.org/W2255678829", "https://openalex.org/W2164384113", "https://openalex.org/W2092734722", "https://openalex.org/W4229441083", "https://openalex.org/W1548635867", "https://openalex.org/W4238016385", "https://openalex.org/W2313367634", "https://openalex.org/W1968631095")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Aparna Nallagangula, Yasmine Baca, Andrew Elliott, Phillip Walker, Farah Rukshana Abdulla, Justin Moser, Yiping Shao, Jose Lutzky</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387810974</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>1132P Chemokine expression in uveal melanoma and association with tumor genetics and response to immunotherapy</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5057591852", "https://openalex.org/A5071826146", "https://openalex.org/A5029537789", "https://openalex.org/A5061883893", "https://openalex.org/A5070695316", "https://openalex.org/A5082674870", "https://openalex.org/A5038789771", "https://openalex.org/A5037624715"), au_display_name = c("Aparna Nallagangula", "Yasmine Baca", "Andrew Elliott", "Phillip Walker", "Farah Rukshana Abdulla", "Justin Moser", "Yiping Shao", "Jose Lutzky"), au_orcid = c(NA, "https://orcid.org/0000-0003-2130-0611", 
-"https://orcid.org/0000-0001-8494-8031", "https://orcid.org/0009-0009-5324-6219", NA, "https://orcid.org/0000-0002-0643-6759", "https://orcid.org/0000-0002-3678-8341", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Hematology Oncology, University of Arizona Cancer Center, Tucson, AZ, USA", "Clinical and Translational Research, Caris Life Sciences - Headquarters, Phoenix, AZ, USA", "Clinical and Translational Research, Caris Life Sciences - Headquarters, Phoenix, AZ, USA", 
-"Clinical and Translational Research, Caris Life Sciences - Headquarters, Phoenix, AZ, USA", "POA, Caris Life Sciences - Headquarters, Phoenix, AZ, USA", "Drug Development and Medical Oncology, HonorHealth Research Institute, Scottsdale, AZ, USA", "Barbara Ann Karmanos Cancer Institute, Detroit, MI, USA; Hematology and Oncology, Wayne State University School of Medicine", "Cutaneous Oncology, University of Miami Sylvester Comprehensive Cancer Center, Miami, FL, USA"), institution_id = c("https://openalex.org/I138006243", 
-"https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210130412", "https://openalex.org/I185443292", "https://openalex.org/I4210157065"), institution_display_name = c("University of Arizona", "Caris Life Sciences (United States)", "Caris Life Sciences (United States)", "Caris Life Sciences (United States)", "Caris Life Sciences (United States)", "HonorHealth", "Wayne State University", 
-"Sylvester Comprehensive Cancer Center"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/04wh5hg83", "https://ror.org/04wh5hg83", "https://ror.org/04wh5hg83", "https://ror.org/04wh5hg83", "https://ror.org/03szbwj17", "https://ror.org/01070mq45", "https://ror.org/0552r4b12"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "company", "company", "company", "company", "healthcare", "education", "healthcare"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210130412", "https://openalex.org/I185443292", "https://openalex.org/I4210101935, https://openalex.org/I4210157065"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Uveal melanoma (UM) is a rare form of melanoma having poor responses to currently available systemic agents. Our goal is to understand differences in chemokine expression in relation to tumor genetics and response to immunotherapy. UM patient tumors (N=278, 41 primary, 174 liver mets and 63 other mets) were profiled by NGS DNA/RNA at Caris Life Sciences (Phoenix, AZ). Chemokine expression, high/Low (H/L) defined as samples with &gt;75th- or &lt;25th-percentile of transcripts per million (TPM). Tumor microenvironment (TME) cell fraction estimated by RNA, with median fold changes (H/L) or proportion of samples with non-zero fraction reported (Table). PDL1+ (SP142) tested by IHC. Survival data obtained from insurance claims. Primary tumors had increased expression of CXCR4, CXCR1, CXCR2, CCL27 and CXCL13 compared to liver mets (FC range 1.2-4.2), while CXCL2 expression was increased in liver mets (2.3, p&lt;0.01). In liver mets, increased infiltration of immunosuppressive cells was observed for CXCR4-H and CXCL12-H tumors(Table). Only M1 macrophages, CD8+ T cells and B cells were increased for CXCR4-H and CXCL12-H primary tumors. PDL1+ rates were increased in CXCR4-H tumors overall (H 36% vs L 13%, p&lt;0.05). In liver mets, SF3B1 mutation was associated with lower CXCL1 and CXCL2 expression compared to WT (0.35- and 0.47-fold, respectively, p-&lt;0.01). BAP1-mutated liver mets showed increased CXCL1 expression (2.0-fold, p-0.04), whereas CCR10 expression was increased in BAP1-mutated primary tumors (2.6-fold, p-0.02). Among immunotherapy treated patients with liver mets, there was a trend for improved survival for CXCL12 H (n=13) vs L (n=12) (HR 0.51 (0.21-1.3), p=0.14) and CXCR4 H (n=13) vs L (n=12) (HR 0.49 (0.20-1.2), p=0.12) though not significant.Table: 1132PTME (liver mets): CXCR4/CXCL12 median fold change (H/L) (where median is 0, % non-zero H vs L).Immune CellCXCR4 Median FC (H/L) or non-zero%p-valueCXCL12 Median FC (H/L) or non-zero%p-valueMonocyte13% vs 0%0.0137% vs 11%0.31Treg2.9&lt;0.012.9&lt;0.01T cell CD870% vs 28%&lt;0.0167% vs 34%&lt;0.01T cell CD432% vs 13%0.0237% vs 11%0.01NK cell1.4&lt;0.0011.5&lt;0.001Macrophage M21.30.0021.3&lt;0.001Macrophage M192% vs 50%&lt;0.0196% vs 49%&lt;0.001B cell1.6&lt;0.011.30.02 Open table in a new tab Our results suggest chemokines are differentially expressed in tumors harboring the common alterations associated with medium risk of distant metastases.</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S41454044</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.09.2266</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0923-7534</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.annonc.2023.09.2266</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>http://www.annalsofoncology.org/article/S0923753423031034/pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>S679</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>S679</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>http://www.annalsofoncology.org/article/S0923753423031034/pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4387810974</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4387810974", doi = "https://doi.org/10.1016/j.annonc.2023.09.2266")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.09.2266</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4385988203", "https://openalex.org/W3112004363", "https://openalex.org/W1991879524", "https://openalex.org/W2171435634", "https://openalex.org/W2066581032", "https://openalex.org/W2079364398", "https://openalex.org/W2592449238", "https://openalex.org/W1966504330", "https://openalex.org/W1979139803", "https://openalex.org/W2037631372")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Aparna Nallagangula_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aparna Nallagangula_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1University of Miami, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 2University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL,; 3University of Miami Miller School of Medicine, Miami, FL.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313816660</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Abstract B123: Prevalence of COVID-19 among hematology/oncology patients and providers of a community-facing county health system during the B1.1.529 (“Omicron”) SARS-CoV-2 variant wave</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cancer Epidemiology, Biomarkers &amp; Prevention</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7755.disp22-b123</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7755.disp22-b123</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Hematology Oncology, University of Arizona Cancer Center, Tucson, AZ, USA; Clinical and Translational Research, Caris Life Sciences - Headquarters, Phoenix, AZ, USA; Clinical and Translational Research, Caris Life Sciences - Headquarters, Phoenix, AZ, USA; Clinical and Translational Research, Caris Life Sciences - Headquarters, Phoenix, AZ, USA; POA, Caris Life Sciences - Headquarters, Phoenix, AZ, USA; Drug Development and Medical Oncology, HonorHealth Research Institute, Scottsdale, AZ, USA; Barbara Ann Karmanos Cancer Institute, Detroit, MI, USA; Hematology and Oncology, Wayne State University School of Medicine; Cutaneous Oncology, University of Miami Sylvester Comprehensive Cancer Center, Miami, FL, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387810974</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1132P Chemokine expression in uveal melanoma and association with tumor genetics and response to immunotherapy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Annals of Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2023.09.2266</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2023.09.2266</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
